--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H2">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>75.31244602898633</v>
+        <v>171.41503453936</v>
       </c>
       <c r="R2">
-        <v>677.8120142608769</v>
+        <v>1542.73531085424</v>
       </c>
       <c r="S2">
-        <v>0.01937515100982585</v>
+        <v>0.04323925776679764</v>
       </c>
       <c r="T2">
-        <v>0.01937515100982585</v>
+        <v>0.04323925776679764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H3">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>115.7027901385769</v>
+        <v>141.16143435104</v>
       </c>
       <c r="R3">
-        <v>1041.325111247192</v>
+        <v>1270.45290915936</v>
       </c>
       <c r="S3">
-        <v>0.02976611635121113</v>
+        <v>0.03560781971685206</v>
       </c>
       <c r="T3">
-        <v>0.02976611635121114</v>
+        <v>0.03560781971685206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H4">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>57.8158752912009</v>
+        <v>81.44050084720001</v>
       </c>
       <c r="R4">
-        <v>520.3428776208081</v>
+        <v>732.9645076248001</v>
       </c>
       <c r="S4">
-        <v>0.01487392022961432</v>
+        <v>0.02054327858844026</v>
       </c>
       <c r="T4">
-        <v>0.01487392022961432</v>
+        <v>0.02054327858844026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H5">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>92.0242410440639</v>
+        <v>82.31636652716003</v>
       </c>
       <c r="R5">
-        <v>828.218169396575</v>
+        <v>740.8472987444402</v>
       </c>
       <c r="S5">
-        <v>0.02367448756221668</v>
+        <v>0.02076421476248505</v>
       </c>
       <c r="T5">
-        <v>0.02367448756221668</v>
+        <v>0.02076421476248505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H6">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>46.22577636192467</v>
+        <v>62.00327497868</v>
       </c>
       <c r="R6">
-        <v>416.031987257322</v>
+        <v>558.0294748081201</v>
       </c>
       <c r="S6">
-        <v>0.01189220965169578</v>
+        <v>0.01564025930626976</v>
       </c>
       <c r="T6">
-        <v>0.01189220965169578</v>
+        <v>0.01564025930626976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H7">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I7">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J7">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>60.68389584975446</v>
+        <v>103.73683416044</v>
       </c>
       <c r="R7">
-        <v>546.1550626477901</v>
+        <v>933.6315074439601</v>
       </c>
       <c r="S7">
-        <v>0.01561175752412833</v>
+        <v>0.02616750464291888</v>
       </c>
       <c r="T7">
-        <v>0.01561175752412834</v>
+        <v>0.02616750464291888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
         <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J8">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>442.3276359793106</v>
+        <v>825.1900851019715</v>
       </c>
       <c r="R8">
-        <v>3980.948723813796</v>
+        <v>7426.710765917744</v>
       </c>
       <c r="S8">
-        <v>0.1137948001266607</v>
+        <v>0.2081533098436409</v>
       </c>
       <c r="T8">
-        <v>0.1137948001266607</v>
+        <v>0.2081533098436409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
         <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J9">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>679.5495875742685</v>
+        <v>679.5495875742683</v>
       </c>
       <c r="R9">
         <v>6115.946288168416</v>
       </c>
       <c r="S9">
-        <v>0.1748233734547519</v>
+        <v>0.1714156512665631</v>
       </c>
       <c r="T9">
-        <v>0.174823373454752</v>
+        <v>0.1714156512665631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H10">
         <v>13.997732</v>
       </c>
       <c r="I10">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J10">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>339.5661778106204</v>
+        <v>392.0536725698755</v>
       </c>
       <c r="R10">
-        <v>3056.095600295584</v>
+        <v>3528.48305312888</v>
       </c>
       <c r="S10">
-        <v>0.08735801743018622</v>
+        <v>0.09889511647693897</v>
       </c>
       <c r="T10">
-        <v>0.08735801743018623</v>
+        <v>0.09889511647693897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H11">
         <v>13.997732</v>
       </c>
       <c r="I11">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J11">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>540.4799225103445</v>
+        <v>396.2700802900405</v>
       </c>
       <c r="R11">
-        <v>4864.3193025931</v>
+        <v>3566.430722610364</v>
       </c>
       <c r="S11">
-        <v>0.1390458107334141</v>
+        <v>0.09995870078126827</v>
       </c>
       <c r="T11">
-        <v>0.1390458107334141</v>
+        <v>0.09995870078126827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H12">
         <v>13.997732</v>
       </c>
       <c r="I12">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J12">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>271.4948120475173</v>
+        <v>298.4830816838858</v>
       </c>
       <c r="R12">
-        <v>2443.453308427656</v>
+        <v>2686.347735154972</v>
       </c>
       <c r="S12">
-        <v>0.06984573279933522</v>
+        <v>0.07529203574610693</v>
       </c>
       <c r="T12">
-        <v>0.06984573279933524</v>
+        <v>0.07529203574610693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H13">
         <v>13.997732</v>
       </c>
       <c r="I13">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J13">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>356.4107343281023</v>
+        <v>499.3879751510751</v>
       </c>
       <c r="R13">
-        <v>3207.696608952921</v>
+        <v>4494.491776359676</v>
       </c>
       <c r="S13">
-        <v>0.09169150868466151</v>
+        <v>0.125970078652805</v>
       </c>
       <c r="T13">
-        <v>0.09169150868466155</v>
+        <v>0.125970078652805</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H14">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>0.1088934288486667</v>
+        <v>0.06744074378311112</v>
       </c>
       <c r="R14">
-        <v>0.9800408596379999</v>
+        <v>0.6069666940480001</v>
       </c>
       <c r="S14">
-        <v>2.801431555029577E-05</v>
+        <v>1.701185495343998E-05</v>
       </c>
       <c r="T14">
-        <v>2.801431555029578E-05</v>
+        <v>1.701185495343998E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H15">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>0.1672933785831111</v>
+        <v>0.05553790629688889</v>
       </c>
       <c r="R15">
-        <v>1.505640407248</v>
+        <v>0.499841156672</v>
       </c>
       <c r="S15">
-        <v>4.303849687399895E-05</v>
+        <v>1.400937702257396E-05</v>
       </c>
       <c r="T15">
-        <v>4.303849687399897E-05</v>
+        <v>1.400937702257396E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H16">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>0.08359533163911112</v>
+        <v>0.03204157655111112</v>
       </c>
       <c r="R16">
-        <v>0.7523579847520001</v>
+        <v>0.28837418896</v>
       </c>
       <c r="S16">
-        <v>2.15060359824307E-05</v>
+        <v>8.082453160956232E-06</v>
       </c>
       <c r="T16">
-        <v>2.150603598243071E-05</v>
+        <v>8.082453160956232E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H17">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I17">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J17">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>0.1330568275611111</v>
+        <v>0.03238617312088889</v>
       </c>
       <c r="R17">
-        <v>1.19751144805</v>
+        <v>0.291475558088</v>
       </c>
       <c r="S17">
-        <v>3.42306784975841E-05</v>
+        <v>8.169377274387803E-06</v>
       </c>
       <c r="T17">
-        <v>3.423067849758411E-05</v>
+        <v>8.169377274387803E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H18">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I18">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J18">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>0.06683733638533333</v>
+        <v>0.02439428369155556</v>
       </c>
       <c r="R18">
-        <v>0.6015360274680001</v>
+        <v>0.219548553224</v>
       </c>
       <c r="S18">
-        <v>1.719481379029897E-05</v>
+        <v>6.153431776915457E-06</v>
       </c>
       <c r="T18">
-        <v>1.719481379029897E-05</v>
+        <v>6.153431776915457E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H19">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I19">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J19">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>0.08774217069555557</v>
+        <v>0.04081374351022223</v>
       </c>
       <c r="R19">
-        <v>0.7896795362600002</v>
+        <v>0.3673236915920001</v>
       </c>
       <c r="S19">
-        <v>2.257286672779158E-05</v>
+        <v>1.029522282458394E-05</v>
       </c>
       <c r="T19">
-        <v>2.25728667277916E-05</v>
+        <v>1.029522282458394E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H20">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>121.547818559352</v>
+        <v>60.16339233464088</v>
       </c>
       <c r="R20">
-        <v>1093.930367034168</v>
+        <v>541.470531011768</v>
       </c>
       <c r="S20">
-        <v>0.03126982940636346</v>
+        <v>0.01517615089174212</v>
       </c>
       <c r="T20">
-        <v>0.03126982940636347</v>
+        <v>0.01517615089174212</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H21">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>186.734364425792</v>
+        <v>49.5449584116391</v>
       </c>
       <c r="R21">
-        <v>1680.609279832128</v>
+        <v>445.904625704752</v>
       </c>
       <c r="S21">
-        <v>0.04803995488449637</v>
+        <v>0.01249766237578317</v>
       </c>
       <c r="T21">
-        <v>0.04803995488449639</v>
+        <v>0.01249766237578317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H22">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I22">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J22">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>93.30985634220799</v>
+        <v>28.58405517092889</v>
       </c>
       <c r="R22">
-        <v>839.788707079872</v>
+        <v>257.25649653836</v>
       </c>
       <c r="S22">
-        <v>0.02400522958236694</v>
+        <v>0.007210297118205004</v>
       </c>
       <c r="T22">
-        <v>0.02400522958236694</v>
+        <v>0.007210297118205004</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H23">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I23">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J23">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>148.5192201722</v>
+        <v>28.89146724057311</v>
       </c>
       <c r="R23">
-        <v>1336.6729815498</v>
+        <v>260.023205165158</v>
       </c>
       <c r="S23">
-        <v>0.03820858928935095</v>
+        <v>0.007287841481543328</v>
       </c>
       <c r="T23">
-        <v>0.03820858928935095</v>
+        <v>0.007287841481543328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H24">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I24">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J24">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>74.60443225867199</v>
+        <v>21.76196136237044</v>
       </c>
       <c r="R24">
-        <v>671.4398903280479</v>
+        <v>195.857652261334</v>
       </c>
       <c r="S24">
-        <v>0.01919300483824092</v>
+        <v>0.005489431305645259</v>
       </c>
       <c r="T24">
-        <v>0.01919300483824092</v>
+        <v>0.005489431305645259</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H25">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I25">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J25">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>97.93859516104</v>
+        <v>36.40964090413578</v>
       </c>
       <c r="R25">
-        <v>881.4473564493601</v>
+        <v>327.686768137222</v>
       </c>
       <c r="S25">
-        <v>0.02519603559556422</v>
+        <v>0.009184292687517861</v>
       </c>
       <c r="T25">
-        <v>0.02519603559556423</v>
+        <v>0.009184292687517861</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.001163</v>
       </c>
       <c r="I26">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J26">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>0.03675074223766666</v>
+        <v>0.06856082606622221</v>
       </c>
       <c r="R26">
-        <v>0.3307566801389999</v>
+        <v>0.617047434596</v>
       </c>
       <c r="S26">
-        <v>9.454628260300053E-06</v>
+        <v>1.729439450249186E-05</v>
       </c>
       <c r="T26">
-        <v>9.454628260300056E-06</v>
+        <v>1.729439450249186E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.001163</v>
       </c>
       <c r="I27">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J27">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
         <v>0.05646030159377777</v>
@@ -2129,10 +2129,10 @@
         <v>0.5081427143439999</v>
       </c>
       <c r="S27">
-        <v>1.452518045979709E-05</v>
+        <v>1.424205024235447E-05</v>
       </c>
       <c r="T27">
-        <v>1.45251804597971E-05</v>
+        <v>1.424205024235447E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>0.001163</v>
       </c>
       <c r="I28">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J28">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>0.02821281796177778</v>
+        <v>0.03257373560222222</v>
       </c>
       <c r="R28">
-        <v>0.253915361656</v>
+        <v>0.29316362042</v>
       </c>
       <c r="S28">
-        <v>7.258131122335144E-06</v>
+        <v>8.216689708209875E-06</v>
       </c>
       <c r="T28">
-        <v>7.258131122335146E-06</v>
+        <v>8.216689708209875E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.001163</v>
       </c>
       <c r="I29">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J29">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>0.04490571400277778</v>
+        <v>0.03292405536677778</v>
       </c>
       <c r="R29">
-        <v>0.404151426025</v>
+        <v>0.296316498301</v>
       </c>
       <c r="S29">
-        <v>1.155260565661355E-05</v>
+        <v>8.30505749135753E-06</v>
       </c>
       <c r="T29">
-        <v>1.155260565661356E-05</v>
+        <v>8.30505749135753E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.001163</v>
       </c>
       <c r="I30">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J30">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>0.02255711613933333</v>
+        <v>0.02479943350811111</v>
       </c>
       <c r="R30">
-        <v>0.203014045254</v>
+        <v>0.223194901573</v>
       </c>
       <c r="S30">
-        <v>5.803124909494399E-06</v>
+        <v>6.255630381601989E-06</v>
       </c>
       <c r="T30">
-        <v>5.803124909494401E-06</v>
+        <v>6.255630381601989E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.001163</v>
       </c>
       <c r="I31">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J31">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>0.02961234605888889</v>
+        <v>0.04149159414544444</v>
       </c>
       <c r="R31">
-        <v>0.26651111453</v>
+        <v>0.373424347309</v>
       </c>
       <c r="S31">
-        <v>7.618178759263381E-06</v>
+        <v>1.046620991695028E-05</v>
       </c>
       <c r="T31">
-        <v>7.618178759263385E-06</v>
+        <v>1.046620991695028E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H32">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I32">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J32">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>14.456408478394</v>
+        <v>1.459054553</v>
       </c>
       <c r="R32">
-        <v>130.107676305546</v>
+        <v>13.131490977</v>
       </c>
       <c r="S32">
-        <v>0.003719107691985029</v>
+        <v>0.000368044938896538</v>
       </c>
       <c r="T32">
-        <v>0.00371910769198503</v>
+        <v>0.000368044938896538</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H33">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I33">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J33">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>22.20943395849066</v>
+        <v>1.201541242</v>
       </c>
       <c r="R33">
-        <v>199.884905626416</v>
+        <v>10.813871178</v>
       </c>
       <c r="S33">
-        <v>0.005713678939904465</v>
+        <v>0.0003030874836614559</v>
       </c>
       <c r="T33">
-        <v>0.005713678939904467</v>
+        <v>0.0003030874836614559</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H34">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I34">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J34">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>11.09789887084267</v>
+        <v>0.6932071850000001</v>
       </c>
       <c r="R34">
-        <v>99.88108983758399</v>
+        <v>6.238864665</v>
       </c>
       <c r="S34">
-        <v>0.002855085418837598</v>
+        <v>0.0001748607655014569</v>
       </c>
       <c r="T34">
-        <v>0.002855085418837599</v>
+        <v>0.0001748607655014569</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H35">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I35">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J35">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>17.66427846381666</v>
+        <v>0.7006623992500002</v>
       </c>
       <c r="R35">
-        <v>158.97850617435</v>
+        <v>6.305961593250001</v>
       </c>
       <c r="S35">
-        <v>0.004544375873601791</v>
+        <v>0.0001767413352631977</v>
       </c>
       <c r="T35">
-        <v>0.004544375873601791</v>
+        <v>0.0001767413352631977</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H36">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I36">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J36">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>8.873150993683998</v>
+        <v>0.5277609452500001</v>
       </c>
       <c r="R36">
-        <v>79.85835894315599</v>
+        <v>4.74984850725</v>
       </c>
       <c r="S36">
-        <v>0.00228273877028832</v>
+        <v>0.0001331271297890363</v>
       </c>
       <c r="T36">
-        <v>0.002282738770288321</v>
+        <v>0.0001331271297890363</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H37">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I37">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J37">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>11.64842244171333</v>
+        <v>0.8829896432500001</v>
       </c>
       <c r="R37">
-        <v>104.83580197542</v>
+        <v>7.946906789250001</v>
       </c>
       <c r="S37">
-        <v>0.002996715094707936</v>
+        <v>0.0002227331861087871</v>
       </c>
       <c r="T37">
-        <v>0.002996715094707938</v>
+        <v>0.0002227331861087871</v>
       </c>
     </row>
   </sheetData>
